--- a/Prototypes/Rice/Observed.xlsx
+++ b/Prototypes/Rice/Observed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2020_Try_model\APSIMXRICE\Prototypes\Rice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{474C802E-8375-4DB5-B0F9-BE2CB3E57BBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D27FB9D-99C6-42A4-8BBC-0D28AC6BB48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5536E3C9-36B3-49B5-9946-2B4B26235FE9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{5536E3C9-36B3-49B5-9946-2B4B26235FE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed" sheetId="1" r:id="rId1"/>
@@ -1097,12 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4DBB09-370F-4844-9E0E-7017C7024024}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R1552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A402" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:Q1048576"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F482" sqref="F482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1174,7 +1173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>IF(G2="",2,1)</f>
         <v>2</v>
@@ -1222,7 +1221,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <f t="shared" ref="A3:A66" si="0">IF(G3="",2,1)</f>
         <v>2</v>
@@ -1270,7 +1269,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1318,7 +1317,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1366,7 +1365,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1414,7 +1413,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1462,7 +1461,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1510,7 +1509,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1558,7 +1557,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1606,7 +1605,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1654,7 +1653,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1702,7 +1701,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1750,7 +1749,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1798,7 +1797,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1846,7 +1845,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1894,7 +1893,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1942,7 +1941,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1990,7 +1989,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2038,7 +2037,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2086,7 +2085,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2134,7 +2133,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2182,7 +2181,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2230,7 +2229,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2278,7 +2277,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2326,7 +2325,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2374,7 +2373,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2422,7 +2421,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2470,7 +2469,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2518,7 +2517,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2566,7 +2565,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2614,7 +2613,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2662,7 +2661,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2710,7 +2709,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2758,7 +2757,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2806,7 +2805,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2854,7 +2853,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2902,7 +2901,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2950,7 +2949,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2998,7 +2997,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3046,7 +3045,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3094,7 +3093,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3142,7 +3141,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3190,7 +3189,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3238,7 +3237,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3286,7 +3285,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3334,7 +3333,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3382,7 +3381,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3430,7 +3429,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3478,7 +3477,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3526,7 +3525,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3574,7 +3573,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3622,7 +3621,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3670,7 +3669,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3718,7 +3717,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3766,7 +3765,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3814,7 +3813,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3862,7 +3861,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3910,7 +3909,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -3958,7 +3957,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4006,7 +4005,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4054,7 +4053,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4102,7 +4101,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4150,7 +4149,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4198,7 +4197,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4246,7 +4245,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -4294,7 +4293,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67">
         <f t="shared" ref="A67:A130" si="1">IF(G67="",2,1)</f>
         <v>2</v>
@@ -4342,7 +4341,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4390,7 +4389,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4438,7 +4437,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4486,7 +4485,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4534,7 +4533,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4582,7 +4581,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4630,7 +4629,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4678,7 +4677,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4726,7 +4725,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4774,7 +4773,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4822,7 +4821,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4870,7 +4869,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4918,7 +4917,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -4966,7 +4965,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5014,7 +5013,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5062,7 +5061,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5110,7 +5109,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5158,7 +5157,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5206,7 +5205,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5254,7 +5253,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5302,7 +5301,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5350,7 +5349,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5398,7 +5397,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5446,7 +5445,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5494,7 +5493,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5542,7 +5541,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5590,7 +5589,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5638,7 +5637,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5686,7 +5685,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5734,7 +5733,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5782,7 +5781,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5830,7 +5829,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5878,7 +5877,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5926,7 +5925,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5974,7 +5973,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6022,7 +6021,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6070,7 +6069,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6118,7 +6117,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6166,7 +6165,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6214,7 +6213,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6262,7 +6261,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6310,7 +6309,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6358,7 +6357,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6406,7 +6405,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6454,7 +6453,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6502,7 +6501,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6550,7 +6549,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6598,7 +6597,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6646,7 +6645,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6694,7 +6693,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6742,7 +6741,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6790,7 +6789,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6838,7 +6837,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6886,7 +6885,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6934,7 +6933,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6982,7 +6981,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7030,7 +7029,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7078,7 +7077,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7126,7 +7125,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7174,7 +7173,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7222,7 +7221,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7270,7 +7269,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7318,7 +7317,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7366,7 +7365,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131">
         <f t="shared" ref="A131:A194" si="2">IF(G131="",2,1)</f>
         <v>2</v>
@@ -7414,7 +7413,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7462,7 +7461,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7510,7 +7509,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7558,7 +7557,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7606,7 +7605,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7654,7 +7653,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7702,7 +7701,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7750,7 +7749,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7798,7 +7797,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7846,7 +7845,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7894,7 +7893,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7942,7 +7941,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -7990,7 +7989,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8038,7 +8037,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8086,7 +8085,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8134,7 +8133,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8182,7 +8181,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8230,7 +8229,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8278,7 +8277,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8326,7 +8325,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8374,7 +8373,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8422,7 +8421,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8470,7 +8469,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8518,7 +8517,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8566,7 +8565,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8614,7 +8613,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8662,7 +8661,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8710,7 +8709,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8758,7 +8757,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8806,7 +8805,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8854,7 +8853,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8902,7 +8901,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8950,7 +8949,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -8998,7 +8997,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9046,7 +9045,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9094,7 +9093,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9142,7 +9141,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9190,7 +9189,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9238,7 +9237,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9286,7 +9285,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9334,7 +9333,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9382,7 +9381,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9430,7 +9429,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9478,7 +9477,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9526,7 +9525,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9574,7 +9573,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9622,7 +9621,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9670,7 +9669,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9718,7 +9717,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9766,7 +9765,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9814,7 +9813,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9862,7 +9861,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9910,7 +9909,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -9958,7 +9957,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10006,7 +10005,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10054,7 +10053,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10102,7 +10101,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10150,7 +10149,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10198,7 +10197,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10246,7 +10245,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10294,7 +10293,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10342,7 +10341,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193">
         <f t="shared" si="2"/>
         <v>2</v>
@@ -10390,7 +10389,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194">
         <f t="shared" si="2"/>
         <v>1</v>
@@ -10441,7 +10440,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195">
         <f t="shared" ref="A195:A258" si="3">IF(G195="",2,1)</f>
         <v>1</v>
@@ -10492,7 +10491,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10543,7 +10542,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10594,7 +10593,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10645,7 +10644,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10696,7 +10695,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10747,7 +10746,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10798,7 +10797,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10849,7 +10848,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10900,7 +10899,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -10951,7 +10950,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11002,7 +11001,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11053,7 +11052,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11104,7 +11103,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11155,7 +11154,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11206,7 +11205,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11257,7 +11256,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11308,7 +11307,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11359,7 +11358,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11410,7 +11409,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11461,7 +11460,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11512,7 +11511,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11563,7 +11562,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11614,7 +11613,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11665,7 +11664,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11716,7 +11715,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11767,7 +11766,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11818,7 +11817,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11869,7 +11868,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11920,7 +11919,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -11971,7 +11970,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12022,7 +12021,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12073,7 +12072,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12124,7 +12123,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12175,7 +12174,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12226,7 +12225,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12277,7 +12276,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12328,7 +12327,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12379,7 +12378,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12430,7 +12429,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12481,7 +12480,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12532,7 +12531,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12583,7 +12582,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12634,7 +12633,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12685,7 +12684,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12736,7 +12735,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12787,7 +12786,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12838,7 +12837,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12889,7 +12888,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12940,7 +12939,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -12991,7 +12990,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13042,7 +13041,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13093,7 +13092,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13144,7 +13143,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13195,7 +13194,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13246,7 +13245,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13297,7 +13296,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13348,7 +13347,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13399,7 +13398,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13450,7 +13449,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13501,7 +13500,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13552,7 +13551,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13603,7 +13602,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -13654,7 +13653,7 @@
         <v>43305</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -13702,7 +13701,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259">
         <f t="shared" ref="A259:A322" si="4">IF(G259="",2,1)</f>
         <v>2</v>
@@ -13750,7 +13749,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -13798,7 +13797,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -13846,7 +13845,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -13894,7 +13893,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -13942,7 +13941,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -13990,7 +13989,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14038,7 +14037,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14086,7 +14085,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14134,7 +14133,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14182,7 +14181,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14230,7 +14229,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14278,7 +14277,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14326,7 +14325,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14374,7 +14373,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14422,7 +14421,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14470,7 +14469,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14518,7 +14517,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14566,7 +14565,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14614,7 +14613,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14662,7 +14661,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14710,7 +14709,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14758,7 +14757,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14806,7 +14805,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14854,7 +14853,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14902,7 +14901,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14950,7 +14949,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -14998,7 +14997,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15046,7 +15045,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15091,7 +15090,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15139,7 +15138,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15187,7 +15186,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15235,7 +15234,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15283,7 +15282,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15331,7 +15330,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15379,7 +15378,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15427,7 +15426,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15475,7 +15474,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15523,7 +15522,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15571,7 +15570,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15619,7 +15618,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15667,7 +15666,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15715,7 +15714,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15763,7 +15762,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15811,7 +15810,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15859,7 +15858,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15907,7 +15906,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -15955,7 +15954,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16003,7 +16002,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16051,7 +16050,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16099,7 +16098,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16147,7 +16146,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16195,7 +16194,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16243,7 +16242,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="312" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16291,7 +16290,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="313" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16339,7 +16338,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="314" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16387,7 +16386,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="315" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16435,7 +16434,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16483,7 +16482,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16531,7 +16530,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16576,7 +16575,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16624,7 +16623,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16672,7 +16671,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16720,7 +16719,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322">
         <f t="shared" si="4"/>
         <v>2</v>
@@ -16768,7 +16767,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323">
         <f t="shared" ref="A323:A386" si="5">IF(G323="",2,1)</f>
         <v>2</v>
@@ -16816,7 +16815,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -16864,7 +16863,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -16912,7 +16911,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -16960,7 +16959,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17008,7 +17007,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17056,7 +17055,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17104,7 +17103,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17152,7 +17151,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17200,7 +17199,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17248,7 +17247,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17296,7 +17295,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17344,7 +17343,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17392,7 +17391,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17440,7 +17439,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17488,7 +17487,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17533,7 +17532,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17581,7 +17580,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17629,7 +17628,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17677,7 +17676,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17725,7 +17724,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17773,7 +17772,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17821,7 +17820,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17869,7 +17868,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17917,7 +17916,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -17965,7 +17964,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18013,7 +18012,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18061,7 +18060,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18109,7 +18108,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18157,7 +18156,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18205,7 +18204,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18253,7 +18252,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18301,7 +18300,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18349,7 +18348,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18394,7 +18393,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18442,7 +18441,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18490,7 +18489,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18538,7 +18537,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18586,7 +18585,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18634,7 +18633,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18682,7 +18681,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18730,7 +18729,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18778,7 +18777,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18826,7 +18825,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18874,7 +18873,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18922,7 +18921,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -18970,7 +18969,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19018,7 +19017,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19066,7 +19065,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19114,7 +19113,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19162,7 +19161,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19210,7 +19209,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19258,7 +19257,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19306,7 +19305,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19354,7 +19353,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19402,7 +19401,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19450,7 +19449,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19498,7 +19497,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19546,7 +19545,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19594,7 +19593,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19642,7 +19641,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19690,7 +19689,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19738,7 +19737,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19786,7 +19785,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386">
         <f t="shared" si="5"/>
         <v>2</v>
@@ -19834,7 +19833,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387">
         <f t="shared" ref="A387:A450" si="6">IF(G387="",2,1)</f>
         <v>2</v>
@@ -19882,7 +19881,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -19930,7 +19929,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -19978,7 +19977,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20026,7 +20025,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20074,7 +20073,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20122,7 +20121,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20170,7 +20169,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20218,7 +20217,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20266,7 +20265,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20314,7 +20313,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20362,7 +20361,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20410,7 +20409,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20458,7 +20457,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -20506,7 +20505,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401">
         <f t="shared" si="6"/>
         <v>2</v>
@@ -46846,7 +46845,7 @@
         <v>43102</v>
       </c>
     </row>
-    <row r="1233" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1233">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -46876,7 +46875,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1234" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1234">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -46907,7 +46906,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1235" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1235">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -46938,7 +46937,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1236" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1236">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -46969,7 +46968,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1237" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1237">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47000,7 +46999,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1238" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1238">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47031,7 +47030,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1239" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1239">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47062,7 +47061,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1240" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1240">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47093,7 +47092,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1241" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1241">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47124,7 +47123,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1242" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1242">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47155,7 +47154,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1243" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1243">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47185,7 +47184,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1244" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1244">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47215,7 +47214,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1245" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1245">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47245,7 +47244,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1246" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1246">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47275,7 +47274,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1247" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1247">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47305,7 +47304,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1248" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1248">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -47335,7 +47334,7 @@
         <v>43287</v>
       </c>
     </row>
-    <row r="1249" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1249" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1249">
         <f t="shared" ref="A1249:A1264" si="20">IF(G1249="",2,1)</f>
         <v>2</v>
@@ -47365,7 +47364,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1250" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1250" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1250">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47396,7 +47395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1251" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1251" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1251">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47427,7 +47426,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1252" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1252" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1252">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47458,7 +47457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1253" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1253" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1253">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47489,7 +47488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1254" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1254" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1254">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47520,7 +47519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1255" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1255" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1255">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47551,7 +47550,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1256" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1256" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1256">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47582,7 +47581,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1257" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1257" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1257">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47613,7 +47612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1258" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1258" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1258">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47644,7 +47643,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1259" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1259" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1259">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47674,7 +47673,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1260" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1260" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1260">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47704,7 +47703,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1261" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1261" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1261">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47734,7 +47733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1262" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1262" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1262">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47764,7 +47763,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1263" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1263" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1263">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47794,7 +47793,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1264" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1264" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1264">
         <f t="shared" si="20"/>
         <v>2</v>
@@ -47824,7 +47823,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="1265" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1265" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1265">
         <f t="shared" ref="A1265:A1280" si="21">IF(G1265="",2,1)</f>
         <v>2</v>
@@ -47854,7 +47853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1266" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1266" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1266">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -47885,7 +47884,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1267" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1267" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1267">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -47916,7 +47915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1268" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1268" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1268">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -47947,7 +47946,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1269" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1269" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1269">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -47978,7 +47977,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1270" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1270" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1270">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48009,7 +48008,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1271" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1271" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1271">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48040,7 +48039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1272" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1272" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1272">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48071,7 +48070,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1273" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1273" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1273">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48102,7 +48101,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1274" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1274" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1274">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48133,7 +48132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1275" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1275" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1275">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48163,7 +48162,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1276" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1276" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1276">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48193,7 +48192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1277" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1277" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1277">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48223,7 +48222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1278" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1278" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1278">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48253,7 +48252,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1279" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1279" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1279">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48283,7 +48282,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1280" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1280" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1280">
         <f t="shared" si="21"/>
         <v>2</v>
@@ -48313,7 +48312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="1281" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1281" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1281">
         <f t="shared" ref="A1281:A1344" si="22">IF(G1281="",2,1)</f>
         <v>2</v>
@@ -48343,7 +48342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1282" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1282" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1282">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48374,7 +48373,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1283" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1283" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1283">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48405,7 +48404,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1284" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1284" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1284">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48436,7 +48435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1285" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1285" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1285">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48467,7 +48466,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1286" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1286" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1286">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48498,7 +48497,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1287" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1287" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1287">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48529,7 +48528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1288" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1288" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1288">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48560,7 +48559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1289" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1289" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1289">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48591,7 +48590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1290" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1290" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1290">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48622,7 +48621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1291" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1291" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1291">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48652,7 +48651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1292" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1292" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1292">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48682,7 +48681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1293" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1293" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1293">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48712,7 +48711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1294" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1294" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1294">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48742,7 +48741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1295" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1295" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1295">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48772,7 +48771,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1296" spans="1:17" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1296" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1296">
         <f t="shared" si="22"/>
         <v>2</v>
@@ -48802,7 +48801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="1297" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1297">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -48847,7 +48846,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1298" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1298">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -48892,7 +48891,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1299" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1299">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -48937,7 +48936,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1300" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1300">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -48982,7 +48981,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1301" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1301">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49027,7 +49026,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1302" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1302">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49072,7 +49071,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1303" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1303">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49117,7 +49116,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1304" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1304">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49162,7 +49161,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1305" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1305">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49207,7 +49206,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1306" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1306">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49252,7 +49251,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1307" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1307">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49297,7 +49296,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1308" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1308">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49342,7 +49341,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1309" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1309">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49387,7 +49386,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1310" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1310">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49432,7 +49431,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1311" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1311">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49477,7 +49476,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1312" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1312">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49522,7 +49521,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1313" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1313">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49567,7 +49566,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1314" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1314">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49612,7 +49611,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1315" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1315">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49657,7 +49656,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1316" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1316">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49702,7 +49701,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1317" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1317">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49747,7 +49746,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1318" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1318">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49792,7 +49791,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1319" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1319">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49837,7 +49836,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1320" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1320">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49882,7 +49881,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1321" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1321">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49927,7 +49926,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1322" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1322">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -49972,7 +49971,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1323" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1323">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50017,7 +50016,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1324" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1324">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50062,7 +50061,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1325" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1325">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50107,7 +50106,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1326" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1326">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50152,7 +50151,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1327" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1327">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50197,7 +50196,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1328" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1328">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50242,7 +50241,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1329" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1329">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50287,7 +50286,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1330" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1330">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50332,7 +50331,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1331" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1331">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50377,7 +50376,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1332" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1332">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50422,7 +50421,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1333" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1333">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50467,7 +50466,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1334" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1334">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50512,7 +50511,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1335" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1335">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50557,7 +50556,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1336" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1336">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50602,7 +50601,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1337" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1337">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50647,7 +50646,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1338" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1338">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50692,7 +50691,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1339" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1339">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50737,7 +50736,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1340" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1340">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50782,7 +50781,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1341" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1341">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50827,7 +50826,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1342" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1342">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50872,7 +50871,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1343" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1343">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50917,7 +50916,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1344" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1344">
         <f t="shared" si="22"/>
         <v>1</v>
@@ -50962,7 +50961,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1345" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1345">
         <f t="shared" ref="A1345:A1408" si="23">IF(G1345="",2,1)</f>
         <v>1</v>
@@ -51007,7 +51006,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1346" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1346">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51052,7 +51051,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1347" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1347">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51097,7 +51096,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1348" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1348">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51142,7 +51141,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1349" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1349">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51187,7 +51186,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1350" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1350">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51232,7 +51231,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1351" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1351">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51277,7 +51276,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1352" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1352">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51322,7 +51321,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1353" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1353">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51367,7 +51366,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1354" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1354">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51412,7 +51411,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1355" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1355">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51457,7 +51456,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1356" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1356">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51502,7 +51501,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1357" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1357">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51547,7 +51546,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1358" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1358">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51592,7 +51591,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1359" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1359">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51637,7 +51636,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1360" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1360">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51682,7 +51681,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1361" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1361">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51727,7 +51726,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1362" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1362">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51772,7 +51771,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1363" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1363">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51817,7 +51816,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1364" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1364">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51862,7 +51861,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1365" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1365">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51907,7 +51906,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1366" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1366">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51952,7 +51951,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1367" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1367">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -51997,7 +51996,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1368" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1368">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52042,7 +52041,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1369" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1369">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52087,7 +52086,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1370" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1370">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52132,7 +52131,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1371" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1371">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52177,7 +52176,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1372" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1372">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52222,7 +52221,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1373" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1373">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52267,7 +52266,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1374" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1374">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52312,7 +52311,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1375" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1375">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52357,7 +52356,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1376" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1376">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52402,7 +52401,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1377" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1377">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52447,7 +52446,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1378" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1378">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52492,7 +52491,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1379" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1379">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52537,7 +52536,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1380" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1380">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52582,7 +52581,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1381" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1381">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52627,7 +52626,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1382" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1382">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52672,7 +52671,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1383" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1383">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52717,7 +52716,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1384" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1384">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52762,7 +52761,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1385" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1385">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52807,7 +52806,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1386" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1386">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52852,7 +52851,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1387" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1387">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52897,7 +52896,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1388" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1388">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52942,7 +52941,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1389" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1389">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -52987,7 +52986,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1390" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1390">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53032,7 +53031,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1391" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1391">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53077,7 +53076,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1392" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1392">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53122,7 +53121,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1393" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1393">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53167,7 +53166,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1394" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1394">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53212,7 +53211,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1395" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1395">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53257,7 +53256,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1396" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1396">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53302,7 +53301,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1397" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1397">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53347,7 +53346,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1398" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1398">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53392,7 +53391,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1399" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1399">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53437,7 +53436,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1400" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1400">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53482,7 +53481,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1401" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1401">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53527,7 +53526,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1402" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1402">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53572,7 +53571,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1403" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1403">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53617,7 +53616,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1404" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1404">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53662,7 +53661,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1405" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1405">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53707,7 +53706,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1406" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1406">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53752,7 +53751,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1407" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1407">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53797,7 +53796,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1408" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1408">
         <f t="shared" si="23"/>
         <v>1</v>
@@ -53842,7 +53841,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1409" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1409">
         <f t="shared" ref="A1409:A1472" si="24">IF(G1409="",2,1)</f>
         <v>1</v>
@@ -53887,7 +53886,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1410" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1410">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -53932,7 +53931,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1411" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1411">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -53977,7 +53976,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1412" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1412">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54022,7 +54021,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1413" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1413">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54067,7 +54066,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1414" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1414">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54112,7 +54111,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1415" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1415">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54157,7 +54156,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1416" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1416">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54202,7 +54201,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1417" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1417">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54247,7 +54246,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1418" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1418">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54292,7 +54291,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1419" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1419">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54337,7 +54336,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1420" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1420">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54382,7 +54381,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1421" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1421">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54427,7 +54426,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1422" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1422">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54472,7 +54471,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1423" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1423">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54517,7 +54516,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1424" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1424">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54562,7 +54561,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1425" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1425">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54607,7 +54606,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1426" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1426">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54652,7 +54651,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1427" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1427">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54697,7 +54696,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1428" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1428">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54742,7 +54741,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1429" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1429">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54787,7 +54786,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1430" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1430">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54832,7 +54831,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1431" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1431">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54877,7 +54876,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1432" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1432">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54922,7 +54921,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1433" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1433">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -54967,7 +54966,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1434" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1434">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55012,7 +55011,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1435" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1435">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55057,7 +55056,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1436" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1436">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55102,7 +55101,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1437" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1437">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55147,7 +55146,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1438" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1438">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55192,7 +55191,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1439" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1439">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55237,7 +55236,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1440" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1440">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55282,7 +55281,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1441" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1441">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55327,7 +55326,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1442" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1442">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55372,7 +55371,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1443" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1443">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55417,7 +55416,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1444" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1444">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55462,7 +55461,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1445" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1445">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55507,7 +55506,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1446" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1446">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55552,7 +55551,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1447" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1447">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55597,7 +55596,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1448" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1448">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55642,7 +55641,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1449" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1449">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55687,7 +55686,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1450" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1450">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55732,7 +55731,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1451" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1451">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55777,7 +55776,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1452" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1452">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55822,7 +55821,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1453" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1453">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55867,7 +55866,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1454" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1454">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55912,7 +55911,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1455" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1455">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -55957,7 +55956,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1456" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1456">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56002,7 +56001,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1457" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1457">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56047,7 +56046,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1458" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1458">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56092,7 +56091,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1459" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1459">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56137,7 +56136,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1460" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1460">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56182,7 +56181,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1461" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1461">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56227,7 +56226,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1462" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1462">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56272,7 +56271,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1463" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1463">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56317,7 +56316,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1464" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1464">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56362,7 +56361,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1465" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1465">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56407,7 +56406,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1466" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1466">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56452,7 +56451,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1467" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1467">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56497,7 +56496,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1468" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1468">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56542,7 +56541,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1469" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1469">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56587,7 +56586,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1470" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1470">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56632,7 +56631,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1471" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1471">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56677,7 +56676,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1472" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1472">
         <f t="shared" si="24"/>
         <v>1</v>
@@ -56722,7 +56721,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1473" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1473">
         <f t="shared" ref="A1473:A1536" si="25">IF(G1473="",2,1)</f>
         <v>1</v>
@@ -56767,7 +56766,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1474" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1474">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -56812,7 +56811,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1475" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1475">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -56857,7 +56856,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1476" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1476">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -56902,7 +56901,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1477" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1477">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -56947,7 +56946,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1478" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1478">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -56992,7 +56991,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1479" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1479">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57037,7 +57036,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1480" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1480">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57082,7 +57081,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1481" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1481">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57127,7 +57126,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1482" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1482">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57172,7 +57171,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1483" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1483">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57217,7 +57216,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1484" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1484" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1484">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57262,7 +57261,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1485" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1485" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1485">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57307,7 +57306,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1486" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1486" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1486">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57352,7 +57351,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1487" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1487" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1487">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57397,7 +57396,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1488" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1488" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1488">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57442,7 +57441,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1489" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1489" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1489">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57493,7 +57492,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1490" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1490" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1490">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57544,7 +57543,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1491" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1491" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1491">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57595,7 +57594,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1492" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1492" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1492">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57646,7 +57645,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1493" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1493" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1493">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57697,7 +57696,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1494" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1494" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1494">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57748,7 +57747,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1495" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1495" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1495">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57799,7 +57798,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1496" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1496" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1496">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57850,7 +57849,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1497" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1497" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1497">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57901,7 +57900,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1498" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1498" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1498">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -57952,7 +57951,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1499" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1499" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1499">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58003,7 +58002,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1500" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1500" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1500">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58054,7 +58053,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1501" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1501" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1501">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58105,7 +58104,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1502" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1502" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1502">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58156,7 +58155,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1503" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1503" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1503">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58207,7 +58206,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1504" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1504" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1504">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58258,7 +58257,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1505" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1505" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1505">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58309,7 +58308,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1506" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1506" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1506">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58360,7 +58359,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1507" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1507" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1507">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58411,7 +58410,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1508" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1508" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1508">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58462,7 +58461,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1509" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1509" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1509">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58513,7 +58512,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1510" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1510" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1510">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58564,7 +58563,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1511" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1511" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1511">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58615,7 +58614,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1512" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1512" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1512">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58666,7 +58665,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1513" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1513" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1513">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58717,7 +58716,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1514" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1514" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1514">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58768,7 +58767,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1515" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1515" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1515">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58819,7 +58818,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1516" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1516" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1516">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58870,7 +58869,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1517" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1517" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1517">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58921,7 +58920,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1518" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1518" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1518">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -58972,7 +58971,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1519" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1519" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1519">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59023,7 +59022,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1520" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1520" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1520">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59074,7 +59073,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1521" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1521" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1521">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59125,7 +59124,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1522" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1522" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1522">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59176,7 +59175,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1523" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1523" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1523">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59227,7 +59226,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1524" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1524" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1524">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59278,7 +59277,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1525" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1525" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1525">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59329,7 +59328,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1526" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1526" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1526">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59380,7 +59379,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1527" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1527" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1527">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59431,7 +59430,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1528" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1528" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1528">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59482,7 +59481,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1529" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1529" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1529">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59533,7 +59532,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1530" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1530" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1530">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59584,7 +59583,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1531" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1531" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1531">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59635,7 +59634,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1532" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1532" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1532">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59686,7 +59685,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1533" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1533" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1533">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59737,7 +59736,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1534" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1534" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1534">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59788,7 +59787,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1535" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1535" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1535">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59839,7 +59838,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1536" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1536" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1536">
         <f t="shared" si="25"/>
         <v>1</v>
@@ -59890,7 +59889,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1537" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1537" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1537">
         <f t="shared" ref="A1537:A1552" si="26">IF(G1537="",2,1)</f>
         <v>1</v>
@@ -59941,7 +59940,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1538" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1538" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1538">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -59992,7 +59991,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1539" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1539" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1539">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60043,7 +60042,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1540" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1540" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1540">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60094,7 +60093,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1541" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1541" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1541">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60145,7 +60144,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1542" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1542" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1542">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60196,7 +60195,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1543" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1543" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1543">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60247,7 +60246,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1544" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1544" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1544">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60298,7 +60297,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1545" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1545" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1545">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60349,7 +60348,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1546" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1546" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1546">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60400,7 +60399,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1547" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1547" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1547">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60451,7 +60450,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1548" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1548" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1548">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60502,7 +60501,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1549" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1549" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1549">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60553,7 +60552,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1550" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1550" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1550">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60604,7 +60603,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1551" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1551" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1551">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60655,7 +60654,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="1552" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="1552" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1552">
         <f t="shared" si="26"/>
         <v>1</v>
@@ -60707,13 +60706,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:R1552" xr:uid="{3E4DBB09-370F-4844-9E0E-7017C7024024}">
-    <filterColumn colId="14">
-      <filters>
-        <dateGroupItem year="2018" month="1" day="2" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:R1552" xr:uid="{3E4DBB09-370F-4844-9E0E-7017C7024024}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
